--- a/forecast/test/test_assets/budget_upload_blank_data.xlsx
+++ b/forecast/test/test_assets/budget_upload_blank_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stronal/PycharmProjects/fido/forecast/test/test_assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stronal/PycharmProjects/fft/forecast/test/test_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57B1F7-E7A0-BC46-856A-43FB5F7019B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E919A-6E37-814B-933E-CF6694B5983C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3160" windowWidth="28800" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Programme</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>ADJ1</t>
+  </si>
+  <si>
+    <t>ADJ2</t>
+  </si>
+  <si>
+    <t>ADJ3</t>
   </si>
 </sst>
 </file>
@@ -940,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="S1" sqref="S1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -955,7 +964,7 @@
     <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1010,8 +1019,17 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>109189</v>
       </c>
@@ -1067,7 +1085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>888888</v>
       </c>
@@ -1123,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>109189</v>
       </c>
@@ -1185,21 +1203,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB92EEA46F33934A96D04653E9CD3A46" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9eaa3db9b0a4b6d7e344c4c898640736">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9a67a83b-a5e1-4318-948d-450fbb0b26a1" xmlns:ns4="e48749df-3746-4597-97ee-799f462add48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3412b8a302904ea294823bd47e66978" ns3:_="" ns4:_="">
     <xsd:import namespace="9a67a83b-a5e1-4318-948d-450fbb0b26a1"/>
@@ -1408,10 +1411,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF255A-1CA2-4DE5-95FF-3D43C4BC1A95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9CA1EFC-4563-470C-8C14-A71BA4C05637}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9a67a83b-a5e1-4318-948d-450fbb0b26a1"/>
+    <ds:schemaRef ds:uri="e48749df-3746-4597-97ee-799f462add48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1434,20 +1463,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9CA1EFC-4563-470C-8C14-A71BA4C05637}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF255A-1CA2-4DE5-95FF-3D43C4BC1A95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9a67a83b-a5e1-4318-948d-450fbb0b26a1"/>
-    <ds:schemaRef ds:uri="e48749df-3746-4597-97ee-799f462add48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>